--- a/api.xlsx
+++ b/api.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APIs" sheetId="4" r:id="rId1"/>
-    <sheet name="chk_email" sheetId="1" r:id="rId2"/>
-    <sheet name="chk_nickname" sheetId="2" r:id="rId3"/>
-    <sheet name="get_countries" sheetId="3" r:id="rId4"/>
+    <sheet name="register" sheetId="5" r:id="rId2"/>
+    <sheet name="login" sheetId="6" r:id="rId3"/>
+    <sheet name="chk_email" sheetId="1" r:id="rId4"/>
+    <sheet name="chk_nickname" sheetId="2" r:id="rId5"/>
+    <sheet name="get_countries" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
   <si>
     <t>email</t>
   </si>
@@ -145,6 +147,63 @@
   </si>
   <si>
     <t>duplicated email</t>
+  </si>
+  <si>
+    <t>invalid dob</t>
+  </si>
+  <si>
+    <t>register_type</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>if reg_t &lt; 3 then require</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>date of birthday</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>groups_status</t>
+  </si>
+  <si>
+    <t>groups_handycap</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>if no place then require</t>
+  </si>
+  <si>
+    <t>if no geo then require</t>
   </si>
 </sst>
 </file>
@@ -501,15 +560,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54976FA-069B-4E5F-9A43-C5984CC86A1E}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,41 +688,49 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <v>541</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>542</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -673,11 +741,292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B0FB41-ED2A-4079-B645-77756E05B71F}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>500</v>
+      </c>
+      <c r="C22" s="1">
+        <v>501</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>510</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>520</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85C3E4A-B3A9-48E8-9A81-5F2C7581462B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +1156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083176F-83DC-44EC-884C-E88B3056A1D8}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -942,11 +1291,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85730A0B-C5C4-4825-A01D-56EBDFE16476}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/api.xlsx
+++ b/api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APIs" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
   <si>
     <t>email</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>if no geo then require</t>
+  </si>
+  <si>
+    <t>invalid place</t>
+  </si>
+  <si>
+    <t>fail insert user</t>
+  </si>
+  <si>
+    <t>fail send email</t>
+  </si>
+  <si>
+    <t>not verified</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>encripted email and time</t>
   </si>
 </sst>
 </file>
@@ -742,10 +760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B0FB41-ED2A-4079-B645-77756E05B71F}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +775,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -920,7 +938,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -973,34 +991,82 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
+        <v>513</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>514</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
         <v>520</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>521</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>531</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>541</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>542</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C34" s="1">
         <v>200</v>
       </c>
     </row>
@@ -1011,12 +1077,150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85C3E4A-B3A9-48E8-9A81-5F2C7581462B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>200</v>
+      </c>
+      <c r="C8" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>511</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>519</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1025,9 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1037,7 +1239,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1067,7 +1269,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1160,9 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083176F-83DC-44EC-884C-E88B3056A1D8}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1172,7 +1372,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1202,7 +1402,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1295,9 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85730A0B-C5C4-4825-A01D-56EBDFE16476}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1307,7 +1505,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1329,7 +1527,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
